--- a/biology/Mycologie/Pileipellis/Pileipellis.xlsx
+++ b/biology/Mycologie/Pileipellis/Pileipellis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mycologie, la cuticule (du latin cuticula, petite peau)[1] est la mince peau recouvrant le chapeau du sporophore, ou plus précisément l'hyménophore.  La cuticule protège la chair du chapeau sur la face opposée à l'hyménium. On trouve donc la cuticule sur le dessus du chapeau mais elle peut aussi se retrouver en dessous pour les champignons cupuliformes comme les pézizes.
-La cuticule est formée d'hyphes différenciés de ceux de la chair et peut concerner des couches monocellulaires ou pluricellulaires, ce dernier cas étant le plus fréquent[2]. Elle peut présenter de nombreux aspects différents.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mycologie, la cuticule (du latin cuticula, petite peau) est la mince peau recouvrant le chapeau du sporophore, ou plus précisément l'hyménophore.  La cuticule protège la chair du chapeau sur la face opposée à l'hyménium. On trouve donc la cuticule sur le dessus du chapeau mais elle peut aussi se retrouver en dessous pour les champignons cupuliformes comme les pézizes.
+La cuticule est formée d'hyphes différenciés de ceux de la chair et peut concerner des couches monocellulaires ou pluricellulaires, ce dernier cas étant le plus fréquent. Elle peut présenter de nombreux aspects différents.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Principaux rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rôles de la cuticule chez les champignons sont : la protection mécanique de l'hyménophore ; la protection contre la déshydratation ; la modification de la forme chez les champignons hygrophanes, l'adaptation morphologique par une forme d'appel mimétique, par des couleurs différentes par exemple chez le genre Russula et parfois la protection de l'hyménium quand il n'y a pas de chair dans l'hyménophore, comme dans le genre Parasola. Elle limite probablement l'évapotranspiration.
 </t>
@@ -543,9 +557,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois la cuticule de Piptoporus betulinus (polypore ou unguline du bouleau) était utilisée comme un cuir à rasoir par les coiffeurs. Elle fut aussi employée par les bijoutiers pour aiguiser les outils ou polir les métaux précieux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois la cuticule de Piptoporus betulinus (polypore ou unguline du bouleau) était utilisée comme un cuir à rasoir par les coiffeurs. Elle fut aussi employée par les bijoutiers pour aiguiser les outils ou polir les métaux précieux.
 </t>
         </is>
       </c>
@@ -574,11 +590,48 @@
           <t>Morphologie de la cuticule</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cuticule est adnée ou parfois partiellement détachable comme dans les spécimens vieux du genre Boletus ou chez Russula emetica ; elle peut être fine ou plus ou épaisse, voire coriace, caoutchouteuse et élastique comme chez Russula crassotunicata[4].
-Adhérence au toucher
-La cuticule peut être sèche, humide ou plus ou moins visqueuse. Selon le degré d'adhérence qu'elle présente, la cuticule est dite[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cuticule est adnée ou parfois partiellement détachable comme dans les spécimens vieux du genre Boletus ou chez Russula emetica ; elle peut être fine ou plus ou épaisse, voire coriace, caoutchouteuse et élastique comme chez Russula crassotunicata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pileipellis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pileipellis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Morphologie de la cuticule</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Adhérence au toucher</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cuticule peut être sèche, humide ou plus ou moins visqueuse. Selon le degré d'adhérence qu'elle présente, la cuticule est dite :
 lubrifiée lorsqu'elle offre un contact gras sans adhérer au doigt ;
 visciduleuse ou viscidule lorsqu'elle est légèrement ou faiblement visqueuse ou le devient avec l'humidité, par exemple chez Galerina viscida (galérine viscidule) et certains bolets, comme Suillus luteus ;
 glutineuse si elle est à la fois visqueuse et mucilagineuse (consistance de la gélatine), collante ou poisseuse comme le gluten.
@@ -586,10 +639,45 @@
 			Cuticule glutineuse(Gomphidius glutinosus)
 			Cuticule glutineuse(Suillus grevillei)
 En présence d'humidité la cuticule de certains chapeaux devient glutineuse comme chez les genres Leccinum ou Suillus. Vieux et humides, certains bolets, comme Boletus badius présentent un chapeau de cette consistance, le stipe (pied) restant fibreux. Ce caractère s'observe aussi sans le genre Gomphidius et chez certaines espèces du genre Limacella.
-Ornementation
-La surface de la cuticule peut être lisse ou plus ou moins ornementée. De multiples adjectifs sont utilisés pour décrire les différents aspects qu'elle présente. De nombreux ouvrages d'identification des champignons proposent un glossaire explicitant ces termes et leur signification spécifique en mycologie[6],[7].
-Pruineuse, recouverte de pruine, fine poudre pigmentée qui lui confère un aspect givré ou poussiéreux, produite par les articles terminaux des hyphes[8].Exemples : Clitopilus prunulus jeune, Boletus pruinatus, Cantharellus subpruinosus, ou encore Conocybe tenera.
-Micacée, pailletée brillante ou scintillante comme le mica, comme couverte de rosée[9]. Cet effet est dû à la présence de minuscules écailles brillantes sur le champignon à l'état jeune.Exemple : le coprin micacé, Coprinus micaceus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pileipellis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pileipellis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Morphologie de la cuticule</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ornementation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La surface de la cuticule peut être lisse ou plus ou moins ornementée. De multiples adjectifs sont utilisés pour décrire les différents aspects qu'elle présente. De nombreux ouvrages d'identification des champignons proposent un glossaire explicitant ces termes et leur signification spécifique en mycologie,.
+Pruineuse, recouverte de pruine, fine poudre pigmentée qui lui confère un aspect givré ou poussiéreux, produite par les articles terminaux des hyphes.Exemples : Clitopilus prunulus jeune, Boletus pruinatus, Cantharellus subpruinosus, ou encore Conocybe tenera.
+Micacée, pailletée brillante ou scintillante comme le mica, comme couverte de rosée. Cet effet est dû à la présence de minuscules écailles brillantes sur le champignon à l'état jeune.Exemple : le coprin micacé, Coprinus micaceus.
 Furfuracée, recouverte ou composée de petites squames poudreuses, souvent blanches, lui donnant un aspect farineux.Exemple : Cystoderma amianthinum.
 Tesselée, avec des motifs en damier. Lorsque ces motifs sont formés par de fines craquelures, la cuticule est dite aréolée.
 Imbriquée
@@ -625,8 +713,43 @@
 			Cuticule pectinée(Parasola sp.)
 			Cuticule pectinée(Mycena capillaripes)
 			Cuticule pectinée et marge cannelée(Mycena rubromarginata)
-Couleur
-La cuticule et la chair de l'hyménophore peuvent être concolores, c'est-à-dire de la même couleur, ou de couleurs différentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pileipellis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pileipellis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Morphologie de la cuticule</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Couleur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cuticule et la chair de l'hyménophore peuvent être concolores, c'est-à-dire de la même couleur, ou de couleurs différentes.
 La cuticule peut présenter une teinte uniforme ou se modifiant du centre vers la marge du chapeau, elle est alors dite bicolore. Ce caractère est typique de certaines espèces des genres Amanita et Lepista.
 			Cuticule bicolore et marge pectinée(Amanita jacksonii)
 			Cuticule bicolore(Amanita caesarea)
